--- a/data/arch_adj_n.xlsx
+++ b/data/arch_adj_n.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanhartmann/sciebo/Projekte/arch/ENCOW_cleaned/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanhartmann/sciebo/Projekte/arch/ENCOW_cleaned/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC648306-0B8A-444C-AD83-179E1CB91BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822D552-AA8C-8F4D-9AA6-6DAD1501F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="500" windowWidth="25600" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1076">
   <si>
     <t>Token</t>
   </si>
@@ -3227,6 +3227,27 @@
   </si>
   <si>
     <t>anarchist</t>
+  </si>
+  <si>
+    <t>wizz</t>
+  </si>
+  <si>
+    <t>flamen</t>
+  </si>
+  <si>
+    <t>punk</t>
+  </si>
+  <si>
+    <t>plodder</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>mould</t>
+  </si>
+  <si>
+    <t>champion</t>
   </si>
 </sst>
 </file>
@@ -3279,7 +3300,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3313,7 +3344,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C151A2B7-D53F-3842-BF95-025EB23D3B54}" name="Table1" displayName="Table1" ref="A1:G609" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C151A2B7-D53F-3842-BF95-025EB23D3B54}" name="Table1" displayName="Table1" ref="A1:G609" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:G609" xr:uid="{C151A2B7-D53F-3842-BF95-025EB23D3B54}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B5A5FA9B-F51A-E44F-B5F0-71A689E3D198}" name="Token"/>
@@ -3617,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="F607" sqref="F607"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4371,7 +4402,7 @@
         <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -5106,7 +5137,7 @@
         <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G73" t="s">
         <v>138</v>
@@ -5366,7 +5397,7 @@
         <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G86" t="s">
         <v>138</v>
@@ -5946,7 +5977,7 @@
         <v>204</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="G115" t="s">
         <v>138</v>
@@ -5966,7 +5997,7 @@
         <v>206</v>
       </c>
       <c r="F116" t="s">
-        <v>206</v>
+        <v>1069</v>
       </c>
       <c r="G116" t="s">
         <v>138</v>
@@ -6246,7 +6277,7 @@
         <v>226</v>
       </c>
       <c r="F130" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G130" t="s">
         <v>138</v>
@@ -6426,7 +6457,7 @@
         <v>240</v>
       </c>
       <c r="F139" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="G139" t="s">
         <v>138</v>
@@ -6749,7 +6780,7 @@
         <v>264</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="G155" t="s">
         <v>138</v>
@@ -7118,7 +7149,7 @@
         <v>264</v>
       </c>
       <c r="F173" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="G173" t="s">
         <v>138</v>
@@ -7178,7 +7209,7 @@
         <v>297</v>
       </c>
       <c r="F176" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="G176" t="s">
         <v>138</v>
@@ -7418,7 +7449,7 @@
         <v>187</v>
       </c>
       <c r="F188" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G188" t="s">
         <v>138</v>
@@ -7798,7 +7829,7 @@
         <v>334</v>
       </c>
       <c r="F207" t="s">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="G207" t="s">
         <v>138</v>
@@ -7881,7 +7912,7 @@
         <v>342</v>
       </c>
       <c r="F211" t="s">
-        <v>342</v>
+        <v>38</v>
       </c>
       <c r="G211" t="s">
         <v>138</v>
@@ -7901,7 +7932,7 @@
         <v>344</v>
       </c>
       <c r="F212" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="G212" t="s">
         <v>138</v>
@@ -7941,7 +7972,7 @@
         <v>348</v>
       </c>
       <c r="F214" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="G214" t="s">
         <v>138</v>
@@ -8224,7 +8255,7 @@
         <v>367</v>
       </c>
       <c r="F228" t="s">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="G228" t="s">
         <v>138</v>
@@ -8304,7 +8335,7 @@
         <v>375</v>
       </c>
       <c r="F232" t="s">
-        <v>375</v>
+        <v>201</v>
       </c>
       <c r="G232" t="s">
         <v>138</v>
@@ -8684,7 +8715,7 @@
         <v>393</v>
       </c>
       <c r="F251" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="G251" t="s">
         <v>138</v>
@@ -9727,7 +9758,7 @@
         <v>490</v>
       </c>
       <c r="F303" t="s">
-        <v>490</v>
+        <v>234</v>
       </c>
       <c r="G303" t="s">
         <v>138</v>
@@ -9867,7 +9898,7 @@
         <v>501</v>
       </c>
       <c r="F310" t="s">
-        <v>501</v>
+        <v>28</v>
       </c>
       <c r="G310" t="s">
         <v>138</v>
@@ -9947,7 +9978,7 @@
         <v>164</v>
       </c>
       <c r="F314" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G314" t="s">
         <v>138</v>
@@ -10307,7 +10338,7 @@
         <v>536</v>
       </c>
       <c r="F332" t="s">
-        <v>536</v>
+        <v>1070</v>
       </c>
       <c r="G332" t="s">
         <v>138</v>
@@ -10327,7 +10358,7 @@
         <v>538</v>
       </c>
       <c r="F333" t="s">
-        <v>538</v>
+        <v>424</v>
       </c>
       <c r="G333" t="s">
         <v>138</v>
@@ -11327,7 +11358,7 @@
         <v>626</v>
       </c>
       <c r="F383" t="s">
-        <v>626</v>
+        <v>358</v>
       </c>
       <c r="G383" t="s">
         <v>138</v>
@@ -11387,7 +11418,7 @@
         <v>204</v>
       </c>
       <c r="F386" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="G386" t="s">
         <v>138</v>
@@ -12890,7 +12921,7 @@
         <v>771</v>
       </c>
       <c r="F461" t="s">
-        <v>771</v>
+        <v>1071</v>
       </c>
       <c r="G461" t="s">
         <v>138</v>
@@ -13130,7 +13161,7 @@
         <v>794</v>
       </c>
       <c r="F473" t="s">
-        <v>794</v>
+        <v>1072</v>
       </c>
       <c r="G473" t="s">
         <v>138</v>
@@ -13273,7 +13304,7 @@
         <v>806</v>
       </c>
       <c r="F480" t="s">
-        <v>806</v>
+        <v>1073</v>
       </c>
       <c r="G480" t="s">
         <v>138</v>
@@ -13473,7 +13504,7 @@
         <v>826</v>
       </c>
       <c r="F490" t="s">
-        <v>826</v>
+        <v>154</v>
       </c>
       <c r="G490" t="s">
         <v>138</v>
@@ -13593,7 +13624,7 @@
         <v>838</v>
       </c>
       <c r="F496" t="s">
-        <v>838</v>
+        <v>1074</v>
       </c>
       <c r="G496" t="s">
         <v>138</v>
@@ -15036,7 +15067,7 @@
         <v>974</v>
       </c>
       <c r="F568" t="s">
-        <v>974</v>
+        <v>1075</v>
       </c>
       <c r="G568" t="s">
         <v>138</v>
@@ -15156,7 +15187,7 @@
         <v>986</v>
       </c>
       <c r="F574" t="s">
-        <v>986</v>
+        <v>311</v>
       </c>
       <c r="G574" t="s">
         <v>138</v>
@@ -15279,7 +15310,7 @@
         <v>996</v>
       </c>
       <c r="F580" t="s">
-        <v>996</v>
+        <v>465</v>
       </c>
       <c r="G580" t="s">
         <v>138</v>
@@ -15522,7 +15553,7 @@
         <v>1019</v>
       </c>
       <c r="F592" t="s">
-        <v>1019</v>
+        <v>32</v>
       </c>
       <c r="G592" t="s">
         <v>138</v>
@@ -15662,7 +15693,7 @@
         <v>1033</v>
       </c>
       <c r="F599" t="s">
-        <v>1033</v>
+        <v>524</v>
       </c>
       <c r="G599" t="s">
         <v>138</v>
@@ -15869,6 +15900,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F609">
+    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="s">
+      <formula>RIGHT(F2,LEN("s"))="s"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/arch_adj_n.xlsx
+++ b/data/arch_adj_n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanhartmann/sciebo/Projekte/arch/ENCOW_cleaned/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822D552-AA8C-8F4D-9AA6-6DAD1501F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8467A5-80F3-B54D-96BD-A0191E6EB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="600" windowWidth="38880" windowHeight="26040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3229,6 +3229,9 @@
     <t>anarchist</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>wizz</t>
   </si>
   <si>
@@ -3239,9 +3242,6 @@
   </si>
   <si>
     <t>plodder</t>
-  </si>
-  <si>
-    <t>param</t>
   </si>
   <si>
     <t>mould</t>
@@ -3254,7 +3254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3270,13 +3270,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3291,26 +3303,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -3344,7 +3347,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C151A2B7-D53F-3842-BF95-025EB23D3B54}" name="Table1" displayName="Table1" ref="A1:G609" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C151A2B7-D53F-3842-BF95-025EB23D3B54}" name="Table1" displayName="Table1" ref="A1:G609" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G609" xr:uid="{C151A2B7-D53F-3842-BF95-025EB23D3B54}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B5A5FA9B-F51A-E44F-B5F0-71A689E3D198}" name="Token"/>
@@ -3648,14 +3651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4402,7 +4405,7 @@
         <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -5997,7 +6000,7 @@
         <v>206</v>
       </c>
       <c r="F116" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="G116" t="s">
         <v>138</v>
@@ -6277,7 +6280,7 @@
         <v>226</v>
       </c>
       <c r="F130" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G130" t="s">
         <v>138</v>
@@ -6457,7 +6460,7 @@
         <v>240</v>
       </c>
       <c r="F139" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="G139" t="s">
         <v>138</v>
@@ -6780,7 +6783,7 @@
         <v>264</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="G155" t="s">
         <v>138</v>
@@ -8569,7 +8572,7 @@
         <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>1069</v>
       </c>
       <c r="E244" t="s">
         <v>395</v>
@@ -8588,14 +8591,14 @@
       <c r="B245">
         <v>6</v>
       </c>
-      <c r="C245" t="s">
-        <v>7</v>
+      <c r="C245" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="E245" t="s">
         <v>80</v>
       </c>
       <c r="F245" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="G245" t="s">
         <v>138</v>
@@ -10338,7 +10341,7 @@
         <v>536</v>
       </c>
       <c r="F332" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G332" t="s">
         <v>138</v>
@@ -10358,7 +10361,7 @@
         <v>538</v>
       </c>
       <c r="F333" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="G333" t="s">
         <v>138</v>
@@ -11661,7 +11664,7 @@
         <v>16</v>
       </c>
       <c r="G398" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -12921,7 +12924,7 @@
         <v>771</v>
       </c>
       <c r="F461" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G461" t="s">
         <v>138</v>
@@ -13161,7 +13164,7 @@
         <v>794</v>
       </c>
       <c r="F473" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G473" t="s">
         <v>138</v>
@@ -13264,7 +13267,7 @@
         <v>226</v>
       </c>
       <c r="F478" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G478" t="s">
         <v>138</v>
@@ -13304,7 +13307,7 @@
         <v>806</v>
       </c>
       <c r="F480" t="s">
-        <v>1073</v>
+        <v>806</v>
       </c>
       <c r="G480" t="s">
         <v>138</v>
@@ -13497,8 +13500,8 @@
       <c r="B490">
         <v>2</v>
       </c>
-      <c r="C490" t="s">
-        <v>7</v>
+      <c r="C490" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="E490" t="s">
         <v>826</v>
@@ -13904,7 +13907,7 @@
         <v>255</v>
       </c>
       <c r="F510" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="G510" t="s">
         <v>138</v>
@@ -15310,7 +15313,7 @@
         <v>996</v>
       </c>
       <c r="F580" t="s">
-        <v>465</v>
+        <v>994</v>
       </c>
       <c r="G580" t="s">
         <v>138</v>
@@ -15900,11 +15903,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F609">
-    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="s">
-      <formula>RIGHT(F2,LEN("s"))="s"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
